--- a/1  临时/SPR_NV.xlsx
+++ b/1  临时/SPR_NV.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="宏代码数" sheetId="3" r:id="rId1"/>
+    <sheet name="8910NV" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
   <si>
     <t>短信</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +89,102 @@
   </si>
   <si>
     <t>1000-150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RUNNIN</t>
+  </si>
+  <si>
+    <t>FIXED</t>
+  </si>
+  <si>
+    <t>PRODUCT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES</t>
+  </si>
+  <si>
+    <t>UDISK</t>
+  </si>
+  <si>
+    <t>SIM_LOCK</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>OPERATOR</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>CONFIG</t>
+  </si>
+  <si>
+    <t>CRYSTAL</t>
+  </si>
+  <si>
+    <t>IMS</t>
+  </si>
+  <si>
+    <t>FOTA</t>
+  </si>
+  <si>
+    <t>RUN</t>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SECTOR</t>
+  </si>
+  <si>
+    <t>FIXED_NV</t>
+  </si>
+  <si>
+    <t>F_S_ADDR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_E_ADDR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPERATOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boot</t>
+  </si>
+  <si>
+    <t>PS/stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60EF0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOTA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOTAboot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1M=16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -95,7 +192,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,8 +230,37 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,6 +270,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -178,11 +316,28 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="SCI 2" xfId="1"/>
@@ -490,7 +645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
@@ -748,7 +903,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" ref="K11:K20" si="3">"val:nv-"&amp;C11&amp;",allnv~"&amp;D11&amp;"~"&amp;INT(G11*10)/10&amp;"+1~"&amp;H11</f>
+        <f t="shared" ref="K11:K13" si="3">"val:nv-"&amp;C11&amp;",allnv~"&amp;D11&amp;"~"&amp;INT(G11*10)/10&amp;"+1~"&amp;H11</f>
         <v>val:nv-1000-300,allnv~228~7.1+1~NORMAL</v>
       </c>
     </row>
@@ -974,6 +1129,539 @@
       <c r="K21" t="str">
         <f>"val:nv-"&amp;C21&amp;",allnv~"&amp;D21&amp;"~"&amp;INT(G21*10)/10&amp;"+1~"&amp;H21</f>
         <v>val:nv-500-50,allnv~152~4.7+1~TINY_EXE</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:N31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="9.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="6">
+        <v>60000000</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="6">
+        <v>60000000</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2" s="8">
+        <f>(HEX2DEC(H3)-HEX2DEC(H2))/HEX2DEC(10000)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="6">
+        <v>60020000</v>
+      </c>
+      <c r="I3">
+        <v>175</v>
+      </c>
+      <c r="J3" s="8">
+        <f>(HEX2DEC(H6)-HEX2DEC(H3))/HEX2DEC(10000)</f>
+        <v>175</v>
+      </c>
+      <c r="K3">
+        <f>+J3/16</f>
+        <v>10.9375</v>
+      </c>
+      <c r="M3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5">
+        <f>60+11</f>
+        <v>71</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="H4"/>
+      <c r="M4">
+        <v>61</v>
+      </c>
+      <c r="N4">
+        <f>+M4*64/1024</f>
+        <v>3.8125</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4"/>
+      <c r="G5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5">
+        <v>75</v>
+      </c>
+      <c r="N5">
+        <f>+M5*64/1024</f>
+        <v>4.6875</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4"/>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="7" t="str">
+        <f t="shared" ref="H4:H9" si="0">DEC2HEX(HEX2DEC(H7)-HEX2DEC(10000)*I6)</f>
+        <v>60B10000</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6" s="8">
+        <f>(HEX2DEC(H7)-HEX2DEC(H6))/HEX2DEC(10000)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4"/>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>60B40000</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7" s="8">
+        <f>(HEX2DEC(H8)-HEX2DEC(H7))/HEX2DEC(10000)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="4"/>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>60B60000</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="8">
+        <f>(HEX2DEC(H9)-HEX2DEC(H8))/HEX2DEC(10000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4"/>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>60B70000</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9" s="8">
+        <f>(HEX2DEC(H10)-HEX2DEC(H9))/HEX2DEC(10000)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="6" t="str">
+        <f>DEC2HEX(HEX2DEC(60000000)+HEX2DEC(1000000)-71*HEX2DEC(10000))</f>
+        <v>60B90000</v>
+      </c>
+      <c r="I10">
+        <v>11</v>
+      </c>
+      <c r="J10" s="8">
+        <f>(HEX2DEC(H11)-HEX2DEC(H10))/HEX2DEC(10000)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="5">
+        <v>61</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="7" t="str">
+        <f>DEC2HEX(HEX2DEC(H12)-HEX2DEC(10000)*I11)</f>
+        <v>60C40000</v>
+      </c>
+      <c r="I11">
+        <v>60</v>
+      </c>
+      <c r="J11" s="8">
+        <f>(HEX2DEC(H12)-HEX2DEC(H11))/HEX2DEC(10000)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="5">
+        <f>60-60</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="G12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="6" t="str">
+        <f>DEC2HEX(HEX2DEC(60000000)+HEX2DEC(1000000))</f>
+        <v>61000000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="H14" s="6" t="str">
+        <f>DEC2HEX(HEX2DEC(60000000)+HEX2DEC(1000000))</f>
+        <v>61000000</v>
+      </c>
+      <c r="J14" s="8">
+        <f>(HEX2DEC(H15)-HEX2DEC(H14))/HEX2DEC(10000)</f>
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="6">
+        <v>70000000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="5">
+        <v>48</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="H16" s="6">
+        <v>70000000</v>
+      </c>
+      <c r="J16" s="8">
+        <f>(HEX2DEC(H17)-HEX2DEC(H16))/HEX2DEC(10000)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="7" t="str">
+        <f>DEC2HEX(HEX2DEC(H18)-HEX2DEC(10000)*I17)</f>
+        <v>70300000</v>
+      </c>
+      <c r="I17">
+        <v>16</v>
+      </c>
+      <c r="J17" s="8">
+        <f>(HEX2DEC(H18)-HEX2DEC(H17))/HEX2DEC(10000)</f>
+        <v>16</v>
+      </c>
+      <c r="K17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="7" t="str">
+        <f>DEC2HEX(HEX2DEC(H19)-HEX2DEC(10000)*I18)</f>
+        <v>70400000</v>
+      </c>
+      <c r="I18">
+        <v>61</v>
+      </c>
+      <c r="J18" s="8">
+        <f>(HEX2DEC(H19)-HEX2DEC(H18))/HEX2DEC(10000)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="G19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="7" t="str">
+        <f>DEC2HEX(HEX2DEC(H20)-HEX2DEC(10000)*I19)</f>
+        <v>707D0000</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" s="8">
+        <f>(HEX2DEC(H20)-HEX2DEC(H19))/HEX2DEC(10000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="5">
+        <v>3</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="G20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="7" t="str">
+        <f>DEC2HEX(HEX2DEC(H21)-HEX2DEC(10000)*I20)</f>
+        <v>707E0000</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" s="8">
+        <f>(HEX2DEC(H21)-HEX2DEC(H20))/HEX2DEC(10000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="5">
+        <v>16</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="G21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="6" t="str">
+        <f>DEC2HEX(HEX2DEC(70800000)-HEX2DEC(10000)*I21)</f>
+        <v>707F0000</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" s="8">
+        <f>(HEX2DEC(H22)-HEX2DEC(H21))/HEX2DEC(10000)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4">
+        <f>SUM(C3:C21)</f>
+        <v>207</v>
+      </c>
+      <c r="D22" s="4">
+        <v>256</v>
+      </c>
+      <c r="E22">
+        <f>256*64/1024</f>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="6" t="str">
+        <f>DEC2HEX(HEX2DEC(70000000)+HEX2DEC(800000))</f>
+        <v>70800000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H24"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H25"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>1000000</v>
+      </c>
+      <c r="H28" s="6">
+        <f>HEX2DEC(G28/1000)*4/1024</f>
+        <v>16</v>
+      </c>
+      <c r="I28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J28" s="8">
+        <f>HEX2DEC(G28)/HEX2DEC(10000)</f>
+        <v>256</v>
+      </c>
+      <c r="K28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>800000</v>
+      </c>
+      <c r="H29" s="6">
+        <f>HEX2DEC(G29/1000)*4/1024</f>
+        <v>8</v>
+      </c>
+      <c r="I29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J29" s="8">
+        <f>HEX2DEC(G29)/HEX2DEC(10000)</f>
+        <v>128</v>
+      </c>
+      <c r="K29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>10000</v>
+      </c>
+      <c r="H30" s="6">
+        <f>HEX2DEC(G30/1000)*4/1024</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="I30" t="s">
+        <v>35</v>
+      </c>
+      <c r="J30" s="8">
+        <f>HEX2DEC(G30)/HEX2DEC(10000)</f>
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>100000</v>
+      </c>
+      <c r="H31" s="6">
+        <f>HEX2DEC(G31/1000)*4/1024</f>
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>35</v>
+      </c>
+      <c r="J31" s="8">
+        <f>HEX2DEC(G31)/HEX2DEC(10000)</f>
+        <v>16</v>
+      </c>
+      <c r="K31" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/1  临时/SPR_NV.xlsx
+++ b/1  临时/SPR_NV.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="宏代码数" sheetId="3" r:id="rId1"/>
-    <sheet name="8910NV" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>短信</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,102 +88,6 @@
   </si>
   <si>
     <t>1000-150</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RUNNIN</t>
-  </si>
-  <si>
-    <t>FIXED</t>
-  </si>
-  <si>
-    <t>PRODUCT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RES</t>
-  </si>
-  <si>
-    <t>UDISK</t>
-  </si>
-  <si>
-    <t>SIM_LOCK</t>
-  </si>
-  <si>
-    <t>PS</t>
-  </si>
-  <si>
-    <t>OPERATOR</t>
-  </si>
-  <si>
-    <t>CP</t>
-  </si>
-  <si>
-    <t>CONFIG</t>
-  </si>
-  <si>
-    <t>CRYSTAL</t>
-  </si>
-  <si>
-    <t>IMS</t>
-  </si>
-  <si>
-    <t>FOTA</t>
-  </si>
-  <si>
-    <t>RUN</t>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SECTOR</t>
-  </si>
-  <si>
-    <t>FIXED_NV</t>
-  </si>
-  <si>
-    <t>F_S_ADDR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F_E_ADDR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPERATOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boot</t>
-  </si>
-  <si>
-    <t>PS/stone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60EF0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FOTA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FOTAboot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1M=16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RES</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -192,7 +95,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,37 +133,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,18 +144,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,28 +178,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="SCI 2" xfId="1"/>
@@ -645,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1135,537 +980,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N31"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="8" max="8" width="9.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="6">
-        <v>60000000</v>
-      </c>
-    </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="G2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="6">
-        <v>60000000</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2" s="8">
-        <f>(HEX2DEC(H3)-HEX2DEC(H2))/HEX2DEC(10000)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="4"/>
-      <c r="G3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="6">
-        <v>60020000</v>
-      </c>
-      <c r="I3">
-        <v>175</v>
-      </c>
-      <c r="J3" s="8">
-        <f>(HEX2DEC(H6)-HEX2DEC(H3))/HEX2DEC(10000)</f>
-        <v>175</v>
-      </c>
-      <c r="K3">
-        <f>+J3/16</f>
-        <v>10.9375</v>
-      </c>
-      <c r="M3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="5">
-        <f>60+11</f>
-        <v>71</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="H4"/>
-      <c r="M4">
-        <v>61</v>
-      </c>
-      <c r="N4">
-        <f>+M4*64/1024</f>
-        <v>3.8125</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4"/>
-      <c r="G5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5">
-        <v>75</v>
-      </c>
-      <c r="N5">
-        <f>+M5*64/1024</f>
-        <v>4.6875</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4"/>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="7" t="str">
-        <f t="shared" ref="H4:H9" si="0">DEC2HEX(HEX2DEC(H7)-HEX2DEC(10000)*I6)</f>
-        <v>60B10000</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6" s="8">
-        <f>(HEX2DEC(H7)-HEX2DEC(H6))/HEX2DEC(10000)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4"/>
-      <c r="G7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>60B40000</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7" s="8">
-        <f>(HEX2DEC(H8)-HEX2DEC(H7))/HEX2DEC(10000)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="4"/>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>60B60000</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8" s="8">
-        <f>(HEX2DEC(H9)-HEX2DEC(H8))/HEX2DEC(10000)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4"/>
-      <c r="G9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>60B70000</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="J9" s="8">
-        <f>(HEX2DEC(H10)-HEX2DEC(H9))/HEX2DEC(10000)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="5">
-        <v>2</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="6" t="str">
-        <f>DEC2HEX(HEX2DEC(60000000)+HEX2DEC(1000000)-71*HEX2DEC(10000))</f>
-        <v>60B90000</v>
-      </c>
-      <c r="I10">
-        <v>11</v>
-      </c>
-      <c r="J10" s="8">
-        <f>(HEX2DEC(H11)-HEX2DEC(H10))/HEX2DEC(10000)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="5">
-        <v>61</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="7" t="str">
-        <f>DEC2HEX(HEX2DEC(H12)-HEX2DEC(10000)*I11)</f>
-        <v>60C40000</v>
-      </c>
-      <c r="I11">
-        <v>60</v>
-      </c>
-      <c r="J11" s="8">
-        <f>(HEX2DEC(H12)-HEX2DEC(H11))/HEX2DEC(10000)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="5">
-        <f>60-60</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="G12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="6" t="str">
-        <f>DEC2HEX(HEX2DEC(60000000)+HEX2DEC(1000000))</f>
-        <v>61000000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="H14" s="6" t="str">
-        <f>DEC2HEX(HEX2DEC(60000000)+HEX2DEC(1000000))</f>
-        <v>61000000</v>
-      </c>
-      <c r="J14" s="8">
-        <f>(HEX2DEC(H15)-HEX2DEC(H14))/HEX2DEC(10000)</f>
-        <v>3840</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="G15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="6">
-        <v>70000000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="5">
-        <v>48</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="H16" s="6">
-        <v>70000000</v>
-      </c>
-      <c r="J16" s="8">
-        <f>(HEX2DEC(H17)-HEX2DEC(H16))/HEX2DEC(10000)</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="5">
-        <v>1</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="G17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="7" t="str">
-        <f>DEC2HEX(HEX2DEC(H18)-HEX2DEC(10000)*I17)</f>
-        <v>70300000</v>
-      </c>
-      <c r="I17">
-        <v>16</v>
-      </c>
-      <c r="J17" s="8">
-        <f>(HEX2DEC(H18)-HEX2DEC(H17))/HEX2DEC(10000)</f>
-        <v>16</v>
-      </c>
-      <c r="K17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="5">
-        <v>2</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="G18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="7" t="str">
-        <f>DEC2HEX(HEX2DEC(H19)-HEX2DEC(10000)*I18)</f>
-        <v>70400000</v>
-      </c>
-      <c r="I18">
-        <v>61</v>
-      </c>
-      <c r="J18" s="8">
-        <f>(HEX2DEC(H19)-HEX2DEC(H18))/HEX2DEC(10000)</f>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="5">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="G19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="7" t="str">
-        <f>DEC2HEX(HEX2DEC(H20)-HEX2DEC(10000)*I19)</f>
-        <v>707D0000</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19" s="8">
-        <f>(HEX2DEC(H20)-HEX2DEC(H19))/HEX2DEC(10000)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="5">
-        <v>3</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="G20" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="7" t="str">
-        <f>DEC2HEX(HEX2DEC(H21)-HEX2DEC(10000)*I20)</f>
-        <v>707E0000</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20" s="8">
-        <f>(HEX2DEC(H21)-HEX2DEC(H20))/HEX2DEC(10000)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="5">
-        <v>16</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="G21" t="s">
-        <v>40</v>
-      </c>
-      <c r="H21" s="6" t="str">
-        <f>DEC2HEX(HEX2DEC(70800000)-HEX2DEC(10000)*I21)</f>
-        <v>707F0000</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21" s="8">
-        <f>(HEX2DEC(H22)-HEX2DEC(H21))/HEX2DEC(10000)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4">
-        <f>SUM(C3:C21)</f>
-        <v>207</v>
-      </c>
-      <c r="D22" s="4">
-        <v>256</v>
-      </c>
-      <c r="E22">
-        <f>256*64/1024</f>
-        <v>16</v>
-      </c>
-      <c r="G22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H22" s="6" t="str">
-        <f>DEC2HEX(HEX2DEC(70000000)+HEX2DEC(800000))</f>
-        <v>70800000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H23"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H24"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H25"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G28">
-        <v>1000000</v>
-      </c>
-      <c r="H28" s="6">
-        <f>HEX2DEC(G28/1000)*4/1024</f>
-        <v>16</v>
-      </c>
-      <c r="I28" t="s">
-        <v>35</v>
-      </c>
-      <c r="J28" s="8">
-        <f>HEX2DEC(G28)/HEX2DEC(10000)</f>
-        <v>256</v>
-      </c>
-      <c r="K28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G29">
-        <v>800000</v>
-      </c>
-      <c r="H29" s="6">
-        <f>HEX2DEC(G29/1000)*4/1024</f>
-        <v>8</v>
-      </c>
-      <c r="I29" t="s">
-        <v>35</v>
-      </c>
-      <c r="J29" s="8">
-        <f>HEX2DEC(G29)/HEX2DEC(10000)</f>
-        <v>128</v>
-      </c>
-      <c r="K29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G30">
-        <v>10000</v>
-      </c>
-      <c r="H30" s="6">
-        <f>HEX2DEC(G30/1000)*4/1024</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="I30" t="s">
-        <v>35</v>
-      </c>
-      <c r="J30" s="8">
-        <f>HEX2DEC(G30)/HEX2DEC(10000)</f>
-        <v>1</v>
-      </c>
-      <c r="K30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G31">
-        <v>100000</v>
-      </c>
-      <c r="H31" s="6">
-        <f>HEX2DEC(G31/1000)*4/1024</f>
-        <v>1</v>
-      </c>
-      <c r="I31" t="s">
-        <v>35</v>
-      </c>
-      <c r="J31" s="8">
-        <f>HEX2DEC(G31)/HEX2DEC(10000)</f>
-        <v>16</v>
-      </c>
-      <c r="K31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>